--- a/Command Table/Suraj Thite Assignment 10 Mesh Command List.xlsx
+++ b/Command Table/Suraj Thite Assignment 10 Mesh Command List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS THITE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CU-BOULDER\FALL 2019\IOT\assignment-10-surajthite\Command Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Event Handler Event</t>
   </si>
@@ -57,9 +57,6 @@
     <t>"Factory Reset"</t>
   </si>
   <si>
-    <t>Factory reset and clear provisioner data for test purposes when either button is held on startup.  Must configure a timer to perform reset after 2 seconds</t>
-  </si>
-  <si>
     <t>neither button0 or button 1 pressed</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>gecko_evt_mesh_node_initialized</t>
   </si>
   <si>
-    <t>Initialize the mesh stack</t>
-  </si>
-  <si>
     <t>factory reset timer handle</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Completes factory reset</t>
-  </si>
-  <si>
     <t>gecko_evt_mesh_node_initialized_id</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>provisioned &amp;&amp; DeviceIsOnOffSubscriber()</t>
   </si>
   <si>
-    <t>See init_models, onoff_request, onoff_update_and_publish in lightbulb.c, soc-btmesh-light example</t>
-  </si>
-  <si>
     <t>!provisioned</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>gecko_evt_system_external_signal_id</t>
   </si>
   <si>
-    <t>Handle scheduler events</t>
-  </si>
-  <si>
     <t>Button 0 press or release event &amp;&amp; DeviceIsOnOffPublisher()</t>
   </si>
   <si>
@@ -204,25 +189,35 @@
     <t>Display the state of the button on the subscriber</t>
   </si>
   <si>
-    <r>
-      <t>mesh_lib_init(malloc,free,9), mesh_lib_generic_server_register_handler,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> mesh_lib_generic_server_update, mesh_lib_generic_server_publish</t>
-    </r>
+    <t>Configure software timer for display update and reset after 1 second and two seconds respectively.</t>
+  </si>
+  <si>
+    <t>Initialize the mesh stack and set device name and update it in the gatt server database</t>
+  </si>
+  <si>
+    <t>Factory Reset</t>
+  </si>
+  <si>
+    <t>Print on LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initialize the mesh library for server and commands for the same </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle push button event external </t>
+  </si>
+  <si>
+    <t>mesh_lib_init(malloc,free,9), mesh_lib_generic_server_register_handler, mesh_lib_generic_server_update, mesh_lib_generic_server_publish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic Server Handler </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -239,17 +234,17 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,18 +253,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,21 +278,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,357 +595,400 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="7" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="129.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
